--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181069.887392776</v>
+        <v>1176693.454352027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2138871.591440897</v>
+        <v>2122528.737783234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6576776.93576599</v>
+        <v>6624909.07407621</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7951365.419779366</v>
+        <v>7937934.567421784</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>299.603963395984</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -679,7 +679,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66.73243564551197</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>321.7485549873928</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>272.795007891372</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>97.61153143263792</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>385.3946098934701</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>328.3951400293726</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>83.45090745713624</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>229.2671475085637</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1384,7 +1384,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>269.1226583284731</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1624,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2385090293383</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>108.1045920014103</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>35.74523592065111</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>229.2671475085632</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>116.876383545772</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.92357914088127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>91.04236545036201</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>11.97291261316031</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>194.9632162960288</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831355</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>113.8693593270197</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>91.18032069998985</v>
+        <v>38.60126140173107</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340598066</v>
+        <v>3.786554340598055</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124799</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.3566509204186</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2544,7 +2544,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>76.66783807881345</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2572,10 +2572,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831355</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>195.371597020733</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>324.1239771118238</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340598066</v>
+        <v>3.786554340598055</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124799</v>
@@ -2730,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>76.66783807881345</v>
       </c>
       <c r="I28" t="n">
-        <v>38.91286352691762</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685222</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.5851438286122</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012335</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
@@ -2775,10 +2775,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>363.5122727464425</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831355</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270197</v>
+        <v>79.55921874692427</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>84.32029961295804</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882093</v>
+        <v>37.86294566882092</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340598073</v>
+        <v>3.786554340598045</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124799</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>30.71792091265153</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>76.19311257242654</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012335</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5697534131281</v>
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3043,10 +3043,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>337.9699990179782</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831355</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270197</v>
@@ -3088,16 +3088,16 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>168.4528717953229</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>84.32029961295804</v>
       </c>
       <c r="I33" t="n">
-        <v>37.86294566882093</v>
+        <v>37.86294566882092</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340598073</v>
+        <v>3.786554340598045</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124799</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.3213823812237</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>1.365206427652793</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>23.49394057725149</v>
       </c>
       <c r="W35" t="n">
-        <v>181.0739242066285</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3365,7 +3365,7 @@
         <v>84.32029961295804</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86294566882093</v>
+        <v>37.86294566882092</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340598073</v>
+        <v>3.786554340598045</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124799</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>142.1044348809279</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>38.91286352691762</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685223</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.5851438286122</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012335</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5697534131281</v>
@@ -3486,7 +3486,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831355</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>113.8693593270197</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>136.6167701039168</v>
+        <v>38.60126140173197</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3599,10 +3599,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H39" t="n">
-        <v>84.32029961295804</v>
+        <v>84.32029961295802</v>
       </c>
       <c r="I39" t="n">
-        <v>37.86294566882094</v>
+        <v>37.86294566882091</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340598077</v>
+        <v>3.786554340598023</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124799</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3675,7 +3675,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>87.36255458334348</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>110.6454889085778</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>153.2763172128795</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0.9752921631940443</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3836,10 +3836,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H42" t="n">
-        <v>84.32029961295804</v>
+        <v>84.32029961295802</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882094</v>
+        <v>37.86294566882091</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340598077</v>
+        <v>3.786554340598023</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124799</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>33.18539906848606</v>
       </c>
       <c r="G43" t="n">
-        <v>107.7731453049639</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012335</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>10.51322203118908</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,10 +3991,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.2603292525325</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>312.9482776983074</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.79554743002419</v>
+        <v>151.2037672717814</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4070,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4468060836005</v>
+        <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>83.43139446834972</v>
+        <v>84.32029961295802</v>
       </c>
       <c r="I45" t="n">
-        <v>34.69405130679765</v>
+        <v>37.86294566882091</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3.786554340598023</v>
       </c>
       <c r="S45" t="n">
-        <v>125.9209673802291</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T45" t="n">
-        <v>173.5516571990098</v>
+        <v>173.9226398638123</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9353794101674</v>
+        <v>207.9414346223241</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>20.23467415805891</v>
+        <v>87.52641650213755</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5655445443503</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.195354870028</v>
+        <v>1283.665872771676</v>
       </c>
       <c r="C2" t="n">
-        <v>1890.019853372959</v>
+        <v>1283.665872771676</v>
       </c>
       <c r="D2" t="n">
-        <v>1504.578724589627</v>
+        <v>1283.665872771676</v>
       </c>
       <c r="E2" t="n">
-        <v>1101.995199706171</v>
+        <v>1283.665872771676</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>866.771434301654</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>453.6086787896572</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411552</v>
+        <v>129.5256283561478</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4348,34 +4348,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U2" t="n">
-        <v>2683.690100581425</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V2" t="n">
-        <v>2683.690100581425</v>
+        <v>2470.103932629415</v>
       </c>
       <c r="W2" t="n">
-        <v>2683.690100581425</v>
+        <v>2470.103932629415</v>
       </c>
       <c r="X2" t="n">
-        <v>2683.690100581425</v>
+        <v>2080.651327562472</v>
       </c>
       <c r="Y2" t="n">
-        <v>2683.690100581425</v>
+        <v>1684.160618483073</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411552</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>494.9732559860694</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="L3" t="n">
-        <v>978.5393418843826</v>
+        <v>1384.301918348181</v>
       </c>
       <c r="M3" t="n">
-        <v>978.5393418843826</v>
+        <v>1384.301918348181</v>
       </c>
       <c r="N3" t="n">
-        <v>1629.56928853388</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="O3" t="n">
-        <v>2146.089571124861</v>
+        <v>2465.969924934489</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4521,19 +4521,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1679.595029418485</v>
+        <v>1538.857049904488</v>
       </c>
       <c r="C5" t="n">
-        <v>1679.595029418485</v>
+        <v>1538.857049904488</v>
       </c>
       <c r="D5" t="n">
-        <v>1679.595029418485</v>
+        <v>1153.415921121156</v>
       </c>
       <c r="E5" t="n">
-        <v>1354.596489027179</v>
+        <v>750.8323962377003</v>
       </c>
       <c r="F5" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4585,7 +4585,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q5" t="n">
         <v>3105.956385205776</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
         <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V5" t="n">
-        <v>2080.089775129882</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W5" t="n">
-        <v>2080.089775129882</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="X5" t="n">
-        <v>2080.089775129882</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="Y5" t="n">
-        <v>2080.089775129882</v>
+        <v>1939.351795615885</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
         <v>2380.454662679751</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
         <v>143.9541688140574</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>864.9686437480539</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="V7" t="n">
-        <v>92.49739787801357</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W7" t="n">
-        <v>92.49739787801357</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2316.009034427436</v>
+        <v>1574.093547173833</v>
       </c>
       <c r="C8" t="n">
-        <v>1922.833532930367</v>
+        <v>1574.093547173833</v>
       </c>
       <c r="D8" t="n">
-        <v>1537.392404147035</v>
+        <v>1188.652418390501</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.808879263579</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F8" t="n">
-        <v>717.9144407935568</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G8" t="n">
         <v>386.2021781376249</v>
@@ -4831,25 +4831,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U8" t="n">
-        <v>3105.956385205776</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V8" t="n">
-        <v>3105.956385205776</v>
+        <v>2341.583291284944</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.956385205776</v>
+        <v>1970.584256253232</v>
       </c>
       <c r="X8" t="n">
-        <v>2716.503780138833</v>
+        <v>1970.584256253232</v>
       </c>
       <c r="Y8" t="n">
-        <v>2716.503780138833</v>
+        <v>1574.093547173833</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M9" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4992,22 +4992,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1919.518325348037</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C11" t="n">
-        <v>1526.342823850968</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D11" t="n">
-        <v>1294.75984656959</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E11" t="n">
-        <v>892.1763216861347</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F11" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G11" t="n">
         <v>62.11912770411553</v>
@@ -5047,13 +5047,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5065,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W11" t="n">
-        <v>3105.956385205776</v>
+        <v>2530.450881400636</v>
       </c>
       <c r="X11" t="n">
-        <v>2716.503780138833</v>
+        <v>2140.998276333693</v>
       </c>
       <c r="Y11" t="n">
-        <v>2320.013071059434</v>
+        <v>1744.507567254294</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5229,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2308.97093041498</v>
+        <v>2150.355515407704</v>
       </c>
       <c r="C14" t="n">
-        <v>1915.795428917911</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D14" t="n">
-        <v>1530.354300134578</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E14" t="n">
-        <v>1127.770775251123</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F14" t="n">
-        <v>710.8763367811006</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G14" t="n">
-        <v>297.7135812691037</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5296,34 +5296,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W14" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X14" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="Y14" t="n">
-        <v>2709.465676126377</v>
+        <v>2422.196584426364</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>807.9330371481826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>652.3742250073851</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>495.0482902203581</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>326.7942363198036</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>171.3156852812976</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>560.6455939549087</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C17" t="n">
-        <v>524.5392950451601</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D17" t="n">
-        <v>524.5392950451601</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>524.5392950451601</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F17" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I17" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5542,25 +5542,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2715.942227706243</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2118.08268884436</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>1747.083653812648</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X17" t="n">
-        <v>1357.631048745704</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y17" t="n">
-        <v>961.1403396663056</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5697,25 +5697,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>636.8490770607943</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="T19" t="n">
-        <v>636.8490770607943</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="U19" t="n">
-        <v>636.8490770607943</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V19" t="n">
-        <v>370.8697318816186</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W19" t="n">
-        <v>370.8697318816186</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X19" t="n">
-        <v>136.7894096646017</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y19" t="n">
         <v>62.11912770411552</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2085.470327974396</v>
+        <v>1779.897333370056</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.294826477327</v>
+        <v>1386.721831872986</v>
       </c>
       <c r="D20" t="n">
-        <v>1306.853697693994</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>904.270172810539</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>487.3757343405167</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>74.21297882851985</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>74.21297882851985</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5764,40 +5764,40 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2882.455782765192</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U20" t="n">
-        <v>2882.455782765192</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V20" t="n">
-        <v>2882.455782765192</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W20" t="n">
-        <v>2882.455782765192</v>
+        <v>2169.349938436999</v>
       </c>
       <c r="X20" t="n">
-        <v>2882.455782765192</v>
+        <v>1779.897333370056</v>
       </c>
       <c r="Y20" t="n">
-        <v>2485.965073685793</v>
+        <v>1779.897333370056</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>2903.140301388325</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>2667.421249556559</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>2470.488707843399</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
-        <v>2204.509362664223</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2519.522183495031</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.346681997962</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D23" t="n">
-        <v>1740.905553214629</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E23" t="n">
-        <v>1338.322028331174</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F23" t="n">
-        <v>921.4275898611515</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G23" t="n">
-        <v>508.8696605480201</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H23" t="n">
         <v>190.9807864236408</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874827</v>
+        <v>270.9233280874829</v>
       </c>
       <c r="K23" t="n">
-        <v>705.310815113048</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612515</v>
@@ -6001,40 +6001,40 @@
         <v>1942.267504401615</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818616</v>
       </c>
       <c r="O23" t="n">
         <v>3115.769891361765</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130627</v>
+        <v>3549.201349130628</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T23" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U23" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="V23" t="n">
-        <v>3705.96024335277</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="W23" t="n">
-        <v>3705.96024335277</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X23" t="n">
-        <v>3316.507638285827</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y23" t="n">
-        <v>2920.016929206428</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G24" t="n">
         <v>199.3786510244077</v>
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786328</v>
+        <v>219.0418890481677</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786328</v>
+        <v>589.9971470274361</v>
       </c>
       <c r="L24" t="n">
-        <v>628.3937003794183</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.529170671757</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="N24" t="n">
-        <v>2074.797953750982</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1734.412875421583</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="C25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243068</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890252</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943599</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.04797727696</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753459</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719417</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393164</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="V25" t="n">
-        <v>3532.082232213988</v>
+        <v>670.8142165193727</v>
       </c>
       <c r="W25" t="n">
-        <v>3248.751830145166</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="X25" t="n">
-        <v>3014.671507928149</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="Y25" t="n">
-        <v>2791.559446744792</v>
+        <v>75.96123154786331</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1338.322028331174</v>
+        <v>1701.172625711542</v>
       </c>
       <c r="C26" t="n">
-        <v>1338.322028331174</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="D26" t="n">
-        <v>1338.322028331174</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.322028331174</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611515</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480201</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J26" t="n">
         <v>270.9233280874832</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612515</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N26" t="n">
         <v>2575.851817818617</v>
@@ -6250,28 +6250,28 @@
         <v>3798.061577393165</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.33049934086</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.47752358581</v>
+        <v>3600.716529897475</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116318</v>
+        <v>3600.716529897475</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819837</v>
+        <v>3258.609720600994</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788124</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="X26" t="n">
-        <v>2066.214730721181</v>
+        <v>2498.158080502338</v>
       </c>
       <c r="Y26" t="n">
-        <v>1738.816774042571</v>
+        <v>2101.667371422939</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G27" t="n">
         <v>199.3786510244077</v>
@@ -6302,25 +6302,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="L27" t="n">
-        <v>628.3937003794183</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.529170671757</v>
+        <v>784.0967018402021</v>
       </c>
       <c r="N27" t="n">
-        <v>2074.797953750982</v>
+        <v>1522.365484919427</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>2114.348744482018</v>
       </c>
       <c r="P27" t="n">
         <v>2352.277072610002</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="C28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="D28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="E28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="F28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="G28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="H28" t="n">
-        <v>126.4642167637924</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I28" t="n">
-        <v>87.15829400933018</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K28" t="n">
         <v>188.689628895047</v>
@@ -6408,28 +6408,28 @@
         <v>1222.217555045142</v>
       </c>
       <c r="R28" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S28" t="n">
-        <v>912.4273982201011</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T28" t="n">
-        <v>677.8675552895622</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="U28" t="n">
-        <v>392.4435619429682</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="V28" t="n">
-        <v>126.4642167637924</v>
+        <v>670.8142165193727</v>
       </c>
       <c r="W28" t="n">
-        <v>126.4642167637924</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.4642167637924</v>
+        <v>153.4034922335335</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1269.229275930385</v>
+        <v>1669.724021641782</v>
       </c>
       <c r="C29" t="n">
-        <v>876.0537744333155</v>
+        <v>1276.548520144712</v>
       </c>
       <c r="D29" t="n">
-        <v>508.8696605480201</v>
+        <v>891.1073913613802</v>
       </c>
       <c r="E29" t="n">
-        <v>508.8696605480201</v>
+        <v>891.1073913613802</v>
       </c>
       <c r="F29" t="n">
-        <v>508.8696605480201</v>
+        <v>474.212952891358</v>
       </c>
       <c r="G29" t="n">
-        <v>508.8696605480201</v>
+        <v>474.212952891358</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236408</v>
+        <v>156.3240787669787</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874828</v>
+        <v>270.923328087483</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130481</v>
+        <v>705.3108151130483</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612515</v>
@@ -6487,13 +6487,13 @@
         <v>3798.061577393165</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.33049934086</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.47752358581</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="U29" t="n">
         <v>3168.773180116318</v>
@@ -6539,28 +6539,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="L30" t="n">
-        <v>628.3937003794183</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="M30" t="n">
-        <v>1294.106752377726</v>
+        <v>784.0967018402021</v>
       </c>
       <c r="N30" t="n">
-        <v>1294.106752377726</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O30" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.96123154786329</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="C31" t="n">
-        <v>75.96123154786329</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="D31" t="n">
-        <v>75.96123154786329</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="E31" t="n">
-        <v>75.96123154786329</v>
+        <v>231.9250023097533</v>
       </c>
       <c r="F31" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="G31" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K31" t="n">
-        <v>188.6896288950469</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L31" t="n">
-        <v>392.3501285422311</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M31" t="n">
-        <v>620.323564595578</v>
+        <v>620.3235645955782</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289383</v>
+        <v>844.2039549289386</v>
       </c>
       <c r="O31" t="n">
         <v>1044.493221405438</v>
@@ -6642,31 +6642,31 @@
         <v>1196.529419371396</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R31" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S31" t="n">
-        <v>1145.254815072994</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T31" t="n">
-        <v>910.6949721424555</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U31" t="n">
-        <v>625.2709787958614</v>
+        <v>936.793561698549</v>
       </c>
       <c r="V31" t="n">
-        <v>359.2916336166857</v>
+        <v>670.8142165193732</v>
       </c>
       <c r="W31" t="n">
-        <v>75.96123154786329</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="X31" t="n">
-        <v>75.96123154786329</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.96123154786329</v>
+        <v>387.4838144505508</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2055.172590076727</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C32" t="n">
-        <v>2055.172590076727</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D32" t="n">
-        <v>1669.731461293395</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E32" t="n">
-        <v>1267.14793640994</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2534979399173</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G32" t="n">
-        <v>508.8696605480201</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H32" t="n">
         <v>190.9807864236408</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874827</v>
+        <v>270.9233280874829</v>
       </c>
       <c r="K32" t="n">
-        <v>705.310815113048</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612515</v>
@@ -6712,40 +6712,40 @@
         <v>1942.267504401615</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818616</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O32" t="n">
-        <v>3115.769891361764</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130628</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.33049934086</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T32" t="n">
-        <v>3424.47752358581</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.773180116318</v>
+        <v>3168.773180116319</v>
       </c>
       <c r="V32" t="n">
-        <v>2826.666370819837</v>
+        <v>3168.773180116319</v>
       </c>
       <c r="W32" t="n">
-        <v>2455.667335788124</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="X32" t="n">
-        <v>2455.667335788124</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y32" t="n">
-        <v>2455.667335788124</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794183</v>
+        <v>628.3937003794184</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671757</v>
+        <v>1294.106752377726</v>
       </c>
       <c r="N33" t="n">
-        <v>2074.797953750982</v>
+        <v>1294.106752377726</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P33" t="n">
         <v>2352.277072610002</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.3582747201568</v>
+        <v>202.2757957592495</v>
       </c>
       <c r="C34" t="n">
-        <v>387.153156786146</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="D34" t="n">
-        <v>231.5200436886608</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K34" t="n">
-        <v>188.6896288950469</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L34" t="n">
-        <v>392.3501285422311</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M34" t="n">
-        <v>620.323564595578</v>
+        <v>620.3235645955782</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289383</v>
+        <v>844.2039549289386</v>
       </c>
       <c r="O34" t="n">
         <v>1044.493221405438</v>
@@ -6879,31 +6879,31 @@
         <v>1196.529419371396</v>
       </c>
       <c r="Q34" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S34" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T34" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U34" t="n">
-        <v>936.7935616985485</v>
+        <v>936.793561698549</v>
       </c>
       <c r="V34" t="n">
-        <v>670.8142165193727</v>
+        <v>670.8142165193732</v>
       </c>
       <c r="W34" t="n">
-        <v>670.8142165193727</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="X34" t="n">
-        <v>670.8142165193727</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="Y34" t="n">
-        <v>670.8142165193727</v>
+        <v>387.4838144505508</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2086.613754494874</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="C35" t="n">
-        <v>1693.438252997805</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D35" t="n">
-        <v>1307.997124214472</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E35" t="n">
-        <v>905.4135993310169</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F35" t="n">
-        <v>488.5191608609948</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G35" t="n">
-        <v>75.96123154786328</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H35" t="n">
-        <v>75.96123154786328</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874827</v>
+        <v>270.9233280874828</v>
       </c>
       <c r="K35" t="n">
-        <v>705.310815113048</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612515</v>
@@ -6949,40 +6949,40 @@
         <v>1942.267504401615</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818616</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O35" t="n">
-        <v>3115.769891361764</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130628</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S35" t="n">
-        <v>3798.061577393164</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T35" t="n">
-        <v>3798.061577393164</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="U35" t="n">
-        <v>3798.061577393164</v>
+        <v>3389.626155871369</v>
       </c>
       <c r="V35" t="n">
-        <v>3455.954768096683</v>
+        <v>3365.894902763034</v>
       </c>
       <c r="W35" t="n">
-        <v>3273.051814352613</v>
+        <v>2994.895867731321</v>
       </c>
       <c r="X35" t="n">
-        <v>2883.59920928567</v>
+        <v>2605.443262664378</v>
       </c>
       <c r="Y35" t="n">
-        <v>2487.108500206271</v>
+        <v>2208.952553584979</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F36" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G36" t="n">
         <v>199.3786510244077</v>
@@ -7013,22 +7013,22 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K36" t="n">
-        <v>446.9164895271316</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L36" t="n">
-        <v>999.3489583586866</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="M36" t="n">
-        <v>1707.484428651025</v>
+        <v>1155.05195981947</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.293813047411</v>
+        <v>1893.320742898695</v>
       </c>
       <c r="O36" t="n">
         <v>2352.277072610002</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.4642167637924</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="C37" t="n">
-        <v>126.4642167637924</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="D37" t="n">
-        <v>126.4642167637924</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="E37" t="n">
-        <v>126.4642167637924</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="F37" t="n">
-        <v>126.4642167637924</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="G37" t="n">
-        <v>126.4642167637924</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H37" t="n">
-        <v>126.4642167637924</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I37" t="n">
-        <v>87.15829400933018</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J37" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K37" t="n">
-        <v>188.6896288950469</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L37" t="n">
-        <v>392.350128542231</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M37" t="n">
-        <v>620.323564595578</v>
+        <v>620.3235645955782</v>
       </c>
       <c r="N37" t="n">
-        <v>844.2039549289383</v>
+        <v>844.2039549289386</v>
       </c>
       <c r="O37" t="n">
         <v>1044.493221405438</v>
@@ -7116,31 +7116,31 @@
         <v>1196.529419371396</v>
       </c>
       <c r="Q37" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R37" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S37" t="n">
-        <v>912.4273982201011</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T37" t="n">
-        <v>677.8675552895622</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U37" t="n">
-        <v>392.4435619429682</v>
+        <v>936.793561698549</v>
       </c>
       <c r="V37" t="n">
-        <v>126.4642167637924</v>
+        <v>670.8142165193732</v>
       </c>
       <c r="W37" t="n">
-        <v>126.4642167637924</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="X37" t="n">
-        <v>126.4642167637924</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.4642167637924</v>
+        <v>387.4838144505508</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.627745025009</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C38" t="n">
-        <v>1709.452243527939</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D38" t="n">
-        <v>1324.011114744607</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E38" t="n">
-        <v>921.4275898611515</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F38" t="n">
-        <v>921.4275898611515</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G38" t="n">
-        <v>508.8696605480201</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H38" t="n">
         <v>190.9807864236408</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874826</v>
+        <v>270.923328087483</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130479</v>
+        <v>705.3108151130484</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612514</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401615</v>
+        <v>1942.267504401616</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818617</v>
+        <v>2575.851817818618</v>
       </c>
       <c r="O38" t="n">
-        <v>3115.769891361765</v>
+        <v>3115.769891361766</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130628</v>
+        <v>3549.20134913063</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="S38" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="T38" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="U38" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="V38" t="n">
-        <v>3660.06483991446</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="W38" t="n">
-        <v>3289.065804882748</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X38" t="n">
-        <v>2899.613199815804</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y38" t="n">
-        <v>2503.122490736405</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786328</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J39" t="n">
-        <v>219.0418890481675</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K39" t="n">
-        <v>589.9971470274359</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="L39" t="n">
-        <v>631.0211665505501</v>
+        <v>628.3937003794185</v>
       </c>
       <c r="M39" t="n">
-        <v>1339.156636842889</v>
+        <v>1294.106752377726</v>
       </c>
       <c r="N39" t="n">
-        <v>2077.425419922114</v>
+        <v>1294.106752377726</v>
       </c>
       <c r="O39" t="n">
-        <v>2077.425419922114</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P39" t="n">
-        <v>2077.425419922114</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3378.773236484846</v>
+        <v>559.0510964096986</v>
       </c>
       <c r="C40" t="n">
-        <v>3208.568118550835</v>
+        <v>388.8459784756878</v>
       </c>
       <c r="D40" t="n">
-        <v>3052.935005453349</v>
+        <v>388.8459784756878</v>
       </c>
       <c r="E40" t="n">
-        <v>2897.376193312552</v>
+        <v>233.2871663348904</v>
       </c>
       <c r="F40" t="n">
-        <v>2740.050258525524</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="G40" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="H40" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="I40" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J40" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K40" t="n">
-        <v>2764.533651243068</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L40" t="n">
-        <v>2968.194150890252</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M40" t="n">
-        <v>3196.167586943599</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N40" t="n">
-        <v>3420.04797727696</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O40" t="n">
-        <v>3620.337243753459</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P40" t="n">
-        <v>3772.373441719417</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q40" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R40" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S40" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T40" t="n">
-        <v>3798.061577393164</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U40" t="n">
-        <v>3798.061577393164</v>
+        <v>936.793561698549</v>
       </c>
       <c r="V40" t="n">
-        <v>3798.061577393164</v>
+        <v>670.8142165193732</v>
       </c>
       <c r="W40" t="n">
-        <v>3798.061577393164</v>
+        <v>559.0510964096986</v>
       </c>
       <c r="X40" t="n">
-        <v>3563.981255176147</v>
+        <v>559.0510964096986</v>
       </c>
       <c r="Y40" t="n">
-        <v>3563.981255176147</v>
+        <v>559.0510964096986</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1421.960353982689</v>
+        <v>2134.081054711699</v>
       </c>
       <c r="C41" t="n">
-        <v>1028.784852485619</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="D41" t="n">
-        <v>643.3437237022872</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E41" t="n">
-        <v>488.5191608609948</v>
+        <v>1338.322028331174</v>
       </c>
       <c r="F41" t="n">
-        <v>488.5191608609948</v>
+        <v>921.4275898611515</v>
       </c>
       <c r="G41" t="n">
-        <v>75.96123154786329</v>
+        <v>508.86966054802</v>
       </c>
       <c r="H41" t="n">
-        <v>75.96123154786329</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786333</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874828</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K41" t="n">
-        <v>705.310815113048</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612515</v>
@@ -7423,40 +7423,40 @@
         <v>1942.267504401615</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818616</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O41" t="n">
-        <v>3115.769891361764</v>
+        <v>3115.769891361766</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130628</v>
+        <v>3549.20134913063</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="T41" t="n">
-        <v>3577.208601638114</v>
+        <v>3577.208601638116</v>
       </c>
       <c r="U41" t="n">
-        <v>3321.504258168622</v>
+        <v>3321.504258168624</v>
       </c>
       <c r="V41" t="n">
-        <v>2979.397448872141</v>
+        <v>3320.519114569438</v>
       </c>
       <c r="W41" t="n">
-        <v>2608.398413840428</v>
+        <v>3320.519114569438</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.945808773485</v>
+        <v>2931.066509502495</v>
       </c>
       <c r="Y41" t="n">
-        <v>1822.455099694086</v>
+        <v>2534.575800423096</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2306.520858014182</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C42" t="n">
-        <v>2155.866627574274</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D42" t="n">
-        <v>2025.777660195755</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E42" t="n">
-        <v>1889.331169306643</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F42" t="n">
-        <v>1764.899363189774</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G42" t="n">
-        <v>1645.163155807569</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H42" t="n">
-        <v>1559.991135996501</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>1521.745736331025</v>
+        <v>75.96123154786333</v>
       </c>
       <c r="J42" t="n">
-        <v>1521.745736331025</v>
+        <v>75.96123154786333</v>
       </c>
       <c r="K42" t="n">
-        <v>1892.700994310293</v>
+        <v>446.9164895271318</v>
       </c>
       <c r="L42" t="n">
-        <v>2445.133463141848</v>
+        <v>999.348958358687</v>
       </c>
       <c r="M42" t="n">
-        <v>2445.133463141848</v>
+        <v>999.348958358687</v>
       </c>
       <c r="N42" t="n">
-        <v>2465.039604473001</v>
+        <v>1019.255099689837</v>
       </c>
       <c r="O42" t="n">
-        <v>3057.022864035592</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P42" t="n">
-        <v>3523.209924705276</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q42" t="n">
-        <v>3798.061577393164</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R42" t="n">
-        <v>3794.236775028924</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S42" t="n">
-        <v>3665.317021885005</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T42" t="n">
-        <v>3489.637587679134</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U42" t="n">
-        <v>3279.595734525271</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V42" t="n">
-        <v>3057.055732896338</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W42" t="n">
-        <v>2826.938487029625</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X42" t="n">
-        <v>2637.631409379636</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.317192455143</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.8229944821703</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="C43" t="n">
-        <v>184.8229944821703</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="D43" t="n">
-        <v>184.8229944821703</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="E43" t="n">
-        <v>184.8229944821703</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="F43" t="n">
-        <v>184.8229944821703</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786329</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H43" t="n">
-        <v>75.96123154786329</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I43" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786333</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786333</v>
       </c>
       <c r="K43" t="n">
-        <v>188.6896288950469</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L43" t="n">
-        <v>392.3501285422311</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M43" t="n">
-        <v>620.323564595578</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N43" t="n">
-        <v>844.2039549289383</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O43" t="n">
         <v>1044.493221405438</v>
@@ -7590,31 +7590,31 @@
         <v>1196.529419371396</v>
       </c>
       <c r="Q43" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R43" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S43" t="n">
-        <v>1222.217555045142</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T43" t="n">
-        <v>987.6577121146037</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U43" t="n">
-        <v>702.2337187680096</v>
+        <v>936.793561698549</v>
       </c>
       <c r="V43" t="n">
-        <v>702.2337187680096</v>
+        <v>670.8142165193732</v>
       </c>
       <c r="W43" t="n">
-        <v>418.9033166991872</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="X43" t="n">
-        <v>184.8229944821703</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.8229944821703</v>
+        <v>387.4838144505508</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2406.744335195047</v>
+        <v>2029.680916029042</v>
       </c>
       <c r="C44" t="n">
-        <v>2013.568833697978</v>
+        <v>1636.505414531972</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.127704914645</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E44" t="n">
-        <v>1225.54418003119</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F44" t="n">
-        <v>808.6497415611676</v>
+        <v>806.408034985374</v>
       </c>
       <c r="G44" t="n">
-        <v>396.2655705990136</v>
+        <v>393.8501056722425</v>
       </c>
       <c r="H44" t="n">
-        <v>80.1561991865818</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="I44" t="n">
-        <v>80.1561991865818</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J44" t="n">
-        <v>289.5723428629295</v>
+        <v>270.923328087483</v>
       </c>
       <c r="K44" t="n">
-        <v>745.622699721259</v>
+        <v>705.3108151130484</v>
       </c>
       <c r="L44" t="n">
-        <v>1359.364429810254</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M44" t="n">
-        <v>2039.3573827691</v>
+        <v>1942.267504401616</v>
       </c>
       <c r="N44" t="n">
-        <v>2703.32885082136</v>
+        <v>2575.851817818618</v>
       </c>
       <c r="O44" t="n">
-        <v>3271.940652808325</v>
+        <v>3115.769891361766</v>
       </c>
       <c r="P44" t="n">
-        <v>3729.861543951117</v>
+        <v>3549.20134913063</v>
       </c>
       <c r="Q44" t="n">
-        <v>3997.112316789995</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="R44" t="n">
-        <v>4007.80995932909</v>
+        <v>3798.061577393166</v>
       </c>
       <c r="S44" t="n">
-        <v>3935.289204349267</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T44" t="n">
-        <v>3935.289204349267</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="U44" t="n">
-        <v>3935.289204349267</v>
+        <v>3168.773180116319</v>
       </c>
       <c r="V44" t="n">
-        <v>3593.182395052786</v>
+        <v>2826.666370819838</v>
       </c>
       <c r="W44" t="n">
-        <v>3593.182395052786</v>
+        <v>2826.666370819838</v>
       </c>
       <c r="X44" t="n">
-        <v>3203.729789985843</v>
+        <v>2826.666370819838</v>
       </c>
       <c r="Y44" t="n">
-        <v>2807.239080906444</v>
+        <v>2430.175661740438</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>860.7395645753816</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C45" t="n">
-        <v>710.0853341354738</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D45" t="n">
-        <v>579.9963667569541</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E45" t="n">
-        <v>443.5498758678418</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F45" t="n">
-        <v>319.1180697509736</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G45" t="n">
-        <v>199.4748312826903</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H45" t="n">
-        <v>115.2006954560744</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>80.1561991865818</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J45" t="n">
-        <v>231.8455881413855</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K45" t="n">
-        <v>617.5145393549653</v>
+        <v>446.9164895271318</v>
       </c>
       <c r="L45" t="n">
-        <v>1189.731384522577</v>
+        <v>999.348958358687</v>
       </c>
       <c r="M45" t="n">
-        <v>1201.719388374848</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.390298212905</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="O45" t="n">
-        <v>1574.369453773641</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="P45" t="n">
-        <v>2057.956215017394</v>
+        <v>2173.67148932071</v>
       </c>
       <c r="Q45" t="n">
-        <v>2344.439106749512</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R45" t="n">
-        <v>2346.347778449507</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S45" t="n">
-        <v>2219.154882105841</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T45" t="n">
-        <v>2043.850177864417</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U45" t="n">
-        <v>1833.81444108647</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V45" t="n">
-        <v>1611.274439457537</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W45" t="n">
-        <v>1381.157193590824</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X45" t="n">
-        <v>1191.850115940836</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.535899016343</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>270.8003819267127</v>
+        <v>164.3717532671942</v>
       </c>
       <c r="C46" t="n">
-        <v>100.5952639927019</v>
+        <v>164.3717532671942</v>
       </c>
       <c r="D46" t="n">
-        <v>100.5952639927019</v>
+        <v>164.3717532671942</v>
       </c>
       <c r="E46" t="n">
-        <v>100.5952639927019</v>
+        <v>164.3717532671942</v>
       </c>
       <c r="F46" t="n">
-        <v>100.5952639927019</v>
+        <v>164.3717532671942</v>
       </c>
       <c r="G46" t="n">
-        <v>80.1561991865818</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="H46" t="n">
-        <v>80.1561991865818</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="I46" t="n">
-        <v>80.1561991865818</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="J46" t="n">
-        <v>80.1561991865818</v>
+        <v>75.96123154786332</v>
       </c>
       <c r="K46" t="n">
-        <v>201.7598381255003</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L46" t="n">
-        <v>416.7775913713724</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M46" t="n">
-        <v>656.7256589400781</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N46" t="n">
-        <v>892.2959508159794</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O46" t="n">
-        <v>1103.382733432408</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P46" t="n">
-        <v>1264.658071784629</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q46" t="n">
-        <v>1296.742909359899</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R46" t="n">
-        <v>1296.742909359899</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S46" t="n">
-        <v>1296.742909359899</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T46" t="n">
-        <v>1296.742909359899</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U46" t="n">
-        <v>1011.323167395909</v>
+        <v>936.793561698549</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.323167395909</v>
+        <v>670.8142165193732</v>
       </c>
       <c r="W46" t="n">
-        <v>727.9927653270863</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="X46" t="n">
-        <v>493.9124431100694</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="Y46" t="n">
-        <v>270.8003819267127</v>
+        <v>164.3717532671942</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,13 +8069,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>742.9781195708306</v>
+        <v>656.228399718133</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8294,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8537,22 +8537,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>464.9323088406971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8771,13 +8771,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>517.3131487114046</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9011,22 +9011,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>658.1108392979579</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9245,25 +9245,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>499.3034269858954</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>571.8744206036794</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406373</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.8634889524829</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935481</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574877</v>
       </c>
       <c r="O24" t="n">
-        <v>296.7442678660707</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983271</v>
+        <v>372.3832158771368</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995638</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,13 +9953,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406373</v>
+        <v>52.17609846406371</v>
       </c>
       <c r="K27" t="n">
-        <v>37.8634889524829</v>
+        <v>37.86348895248288</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404775</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9968,13 +9968,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>296.7442678660707</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983271</v>
+        <v>266.2375427735535</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995638</v>
+        <v>50.09263685995636</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406374</v>
+        <v>52.1760984640637</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248292</v>
+        <v>37.86348895248285</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404771</v>
       </c>
       <c r="M30" t="n">
-        <v>683.6489718802718</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>2.048060461574934</v>
+        <v>239.581795663227</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406374</v>
+        <v>52.1760984640637</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248292</v>
+        <v>37.86348895248285</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>683.6489718802716</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574821</v>
       </c>
       <c r="O33" t="n">
-        <v>296.7442678660707</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983273</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995639</v>
+        <v>50.09263685995634</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406374</v>
+        <v>52.1760984640637</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404771</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>55.39087298317662</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>480.0545818582793</v>
       </c>
       <c r="P36" t="n">
-        <v>25.90589819983273</v>
+        <v>25.90589819983265</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995639</v>
+        <v>50.09263685995634</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406366</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>37.86348895248279</v>
       </c>
       <c r="L39" t="n">
-        <v>61.93674745274909</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>683.6489718802711</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574721</v>
       </c>
       <c r="O39" t="n">
-        <v>16.46232962463617</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>25.90589819983274</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>50.09263685995629</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406374</v>
+        <v>52.17609846406366</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>11.21154561935488</v>
+        <v>11.21154561935467</v>
       </c>
       <c r="N42" t="n">
-        <v>22.15527392738547</v>
+        <v>22.15527392738317</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406366</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.048060461574721</v>
       </c>
       <c r="O45" t="n">
-        <v>349.0882562565176</v>
+        <v>16.46232962463596</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>230.5023169501499</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>113.121530689338</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>70.22131009294785</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22606,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22789,22 +22789,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>76.80913464722812</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>139.93048619395</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22965,7 +22965,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>240.3576544903974</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>13.1630797411508</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>80.63598792750429</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>313.0388907971467</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>152.3195699869353</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
@@ -23320,7 +23320,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>127.3671399258098</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>87.60371089983593</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>23.65888910788262</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>353.4985105614476</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869357</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>83.91153943350409</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.9573614306418</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>290.5443520451369</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>124.9808331252995</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24177,19 +24177,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>87.62118754448929</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>247.5054205035269</v>
+        <v>300.0844798017857</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.99928758396968</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24387,7 +24387,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685222</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>232.2142445012335</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>144.2131024927096</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>23.27284897676665</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>68.40182487678106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24618,13 +24618,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>74.86790778474148</v>
       </c>
       <c r="I28" t="n">
-        <v>84.77334861470199</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>18.07444474905645</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>408.4323500200001</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.31014058009541</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>125.0347545265053</v>
       </c>
       <c r="G31" t="n">
         <v>166.3029221927327</v>
@@ -24858,10 +24858,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685223</v>
+        <v>11.0850918368522</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.5851438286122</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S31" t="n">
-        <v>119.9139988557523</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>70.46235100202188</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>198.8361728860725</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.03455612316452</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.1378603270179</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
@@ -25095,10 +25095,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685223</v>
+        <v>11.0850918368522</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.5851438286122</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S34" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012335</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831355</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>315.1918006262653</v>
       </c>
       <c r="W35" t="n">
-        <v>186.2151204747669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>41.25150362346037</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25326,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>84.77334861470199</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>11.0850918368522</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717815</v>
+        <v>151.2037672717814</v>
       </c>
       <c r="T38" t="n">
         <v>218.6444459974996</v>
@@ -25450,7 +25450,7 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>202.0689710996</v>
+        <v>300.0844798017848</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>78.94036760938921</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685223</v>
+        <v>11.08509183685218</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.5851438286122</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S40" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012335</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>169.8516091395563</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>245.2813724217414</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831355</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717815</v>
+        <v>151.2037672717814</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>337.7104490403227</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,19 +25797,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>122.5672763706707</v>
       </c>
       <c r="G43" t="n">
-        <v>58.52977688776878</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685223</v>
+        <v>11.08509183685218</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.5851438286122</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S43" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>371.0734954643099</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>107.2375286892235</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>75.48829660308841</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.89142508791</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1335383733998</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26037,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>145.9910854404142</v>
+        <v>78.77650569059514</v>
       </c>
       <c r="H46" t="n">
-        <v>150.8497002527744</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>121.3657224887957</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J46" t="n">
-        <v>5.629696422701148</v>
+        <v>11.08509183685218</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>107.1156329994504</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S46" t="n">
-        <v>194.7623778536736</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T46" t="n">
-        <v>231.8845497803062</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>649199.6930278197</v>
+        <v>649199.69302782</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>649199.6930278197</v>
+        <v>649199.6930278196</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649199.6930278197</v>
+        <v>649199.69302782</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649199.6930278197</v>
+        <v>649199.6930278195</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649199.6930278197</v>
+        <v>649199.6930278199</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730229.544503692</v>
+        <v>730229.5445036921</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730229.544503692</v>
+        <v>730229.5445036921</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730229.5445036922</v>
+        <v>730229.5445036921</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730229.544503692</v>
+        <v>730229.5445036923</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730229.544503692</v>
+        <v>730229.5445036922</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730229.544503692</v>
+        <v>730229.5445036922</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753487.4352025478</v>
+        <v>730229.5445036922</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>267167.6173043599</v>
       </c>
       <c r="E2" t="n">
-        <v>267167.6173043598</v>
+        <v>267167.6173043599</v>
       </c>
       <c r="F2" t="n">
         <v>267167.6173043599</v>
       </c>
       <c r="G2" t="n">
-        <v>267167.61730436</v>
+        <v>267167.6173043599</v>
       </c>
       <c r="H2" t="n">
         <v>267167.61730436</v>
       </c>
       <c r="I2" t="n">
-        <v>302382.4229067767</v>
+        <v>302382.4229067768</v>
       </c>
       <c r="J2" t="n">
         <v>302382.4229067768</v>
       </c>
       <c r="K2" t="n">
-        <v>302382.4229067772</v>
+        <v>302382.422906777</v>
       </c>
       <c r="L2" t="n">
+        <v>302382.4229067771</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302382.422906777</v>
+      </c>
+      <c r="N2" t="n">
+        <v>302382.4229067769</v>
+      </c>
+      <c r="O2" t="n">
         <v>302382.4229067768</v>
       </c>
-      <c r="M2" t="n">
-        <v>302382.4229067768</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302382.4229067768</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>302382.422906777</v>
-      </c>
-      <c r="P2" t="n">
-        <v>312490.1719519236</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>40874.87347203134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26441,7 +26441,7 @@
         <v>25307.3836772043</v>
       </c>
       <c r="J4" t="n">
-        <v>25307.3836772043</v>
+        <v>25307.38367720431</v>
       </c>
       <c r="K4" t="n">
         <v>25307.3836772043</v>
@@ -26456,10 +26456,10 @@
         <v>25307.3836772043</v>
       </c>
       <c r="O4" t="n">
-        <v>25307.38367720431</v>
+        <v>25307.3836772043</v>
       </c>
       <c r="P4" t="n">
-        <v>25007.22465307829</v>
+        <v>25307.3836772043</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
         <v>47210.53705512779</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.5590335744</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.5590335744</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.5590335744</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.55903357441</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.55903357441</v>
       </c>
       <c r="P5" t="n">
-        <v>65098.56005578559</v>
+        <v>60977.55903357441</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100247.2817623664</v>
+        <v>-100778.3767942317</v>
       </c>
       <c r="C6" t="n">
-        <v>159972.0736574624</v>
+        <v>159440.9786255972</v>
       </c>
       <c r="D6" t="n">
-        <v>159972.0736574624</v>
+        <v>159440.9786255971</v>
       </c>
       <c r="E6" t="n">
-        <v>193599.6736574622</v>
+        <v>193068.5786255972</v>
       </c>
       <c r="F6" t="n">
-        <v>193599.6736574623</v>
+        <v>193068.5786255972</v>
       </c>
       <c r="G6" t="n">
-        <v>193599.6736574624</v>
+        <v>193068.5786255972</v>
       </c>
       <c r="H6" t="n">
-        <v>193599.6736574624</v>
+        <v>193068.5786255973</v>
       </c>
       <c r="I6" t="n">
-        <v>57967.19255808467</v>
+        <v>57603.78707670723</v>
       </c>
       <c r="J6" t="n">
-        <v>12933.76708330307</v>
+        <v>12570.36160192561</v>
       </c>
       <c r="K6" t="n">
-        <v>216097.4801959985</v>
+        <v>215734.0747146208</v>
       </c>
       <c r="L6" t="n">
-        <v>216097.4801959982</v>
+        <v>215734.0747146209</v>
       </c>
       <c r="M6" t="n">
-        <v>216097.4801959982</v>
+        <v>215734.0747146208</v>
       </c>
       <c r="N6" t="n">
-        <v>216097.4801959981</v>
+        <v>215734.0747146207</v>
       </c>
       <c r="O6" t="n">
-        <v>216097.4801959983</v>
+        <v>215734.0747146206</v>
       </c>
       <c r="P6" t="n">
-        <v>181509.5137710284</v>
+        <v>215734.0747146208</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980864</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980864</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="K3" t="n">
-        <v>148.9460117980863</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9460117980863</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980863</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980863</v>
+        <v>148.9460117980867</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980863</v>
+        <v>148.9460117980867</v>
       </c>
       <c r="P3" t="n">
-        <v>191.736177705662</v>
+        <v>148.9460117980867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
         <v>776.4890963014441</v>
@@ -26801,37 +26801,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
         <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>949.515394348291</v>
+        <v>949.5153943482912</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482911</v>
+        <v>949.5153943482912</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482911</v>
+        <v>949.5153943482912</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482911</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="M4" t="n">
-        <v>949.515394348291</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="N4" t="n">
-        <v>949.515394348291</v>
+        <v>949.5153943482915</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482911</v>
+        <v>949.5153943482916</v>
       </c>
       <c r="P4" t="n">
-        <v>1001.952489832272</v>
+        <v>949.5153943482915</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980864</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>42.79016590757583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>173.026298046847</v>
+        <v>173.0262980468472</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>52.43709548398152</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767288</v>
+        <v>0.598777936876729</v>
       </c>
       <c r="H23" t="n">
-        <v>6.1322345460388</v>
+        <v>6.132234546038803</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144011</v>
+        <v>23.08438641144012</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999131</v>
+        <v>50.82052891999133</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798326</v>
+        <v>76.16679898798328</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367447</v>
+        <v>94.4916492736745</v>
       </c>
       <c r="M23" t="n">
         <v>105.140166408606</v>
@@ -32724,25 +32724,25 @@
         <v>106.841444221757</v>
       </c>
       <c r="O23" t="n">
-        <v>100.887346111939</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529476</v>
+        <v>86.10501579529479</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089689</v>
+        <v>64.66128093089692</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733285</v>
+        <v>37.61298457733287</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657847</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677882</v>
+        <v>2.621150418677883</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0479022349501383</v>
+        <v>0.04790223495013831</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713557</v>
+        <v>0.3203744404713558</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447041</v>
+        <v>3.094142622447042</v>
       </c>
       <c r="I24" t="n">
         <v>11.03043577938659</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926962</v>
+        <v>30.26835886926963</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085045</v>
+        <v>51.73344638085047</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287045</v>
+        <v>69.56200296287048</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995708</v>
+        <v>81.1755764299571</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259175</v>
+        <v>83.32405239259178</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425276</v>
+        <v>76.22522926425279</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948195</v>
+        <v>61.17746661948197</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595761</v>
+        <v>40.89551629595763</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031804</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716649957</v>
+        <v>5.95081471664996</v>
       </c>
       <c r="T24" t="n">
         <v>1.291333819268315</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162214</v>
+        <v>0.2685911688162215</v>
       </c>
       <c r="H25" t="n">
         <v>2.388019664566043</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673277</v>
+        <v>8.07726896767328</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530685</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064826</v>
+        <v>31.20541034064827</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927714</v>
+        <v>39.93218158927715</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089186</v>
+        <v>42.10288658089187</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257688</v>
+        <v>41.1017740425769</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322374</v>
+        <v>37.96414084322375</v>
       </c>
       <c r="P25" t="n">
-        <v>32.4848809993728</v>
+        <v>32.48488099937281</v>
       </c>
       <c r="Q25" t="n">
         <v>22.49084778151105</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513664</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097237</v>
+        <v>4.680811551097239</v>
       </c>
       <c r="T25" t="n">
         <v>1.147616812214764</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767288</v>
+        <v>0.598777936876729</v>
       </c>
       <c r="H26" t="n">
-        <v>6.1322345460388</v>
+        <v>6.132234546038803</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144011</v>
+        <v>23.08438641144012</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999131</v>
+        <v>50.82052891999133</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798326</v>
+        <v>76.16679898798328</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367447</v>
+        <v>94.4916492736745</v>
       </c>
       <c r="M26" t="n">
         <v>105.140166408606</v>
@@ -32961,25 +32961,25 @@
         <v>106.841444221757</v>
       </c>
       <c r="O26" t="n">
-        <v>100.887346111939</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529476</v>
+        <v>86.10501579529479</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089689</v>
+        <v>64.66128093089692</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733285</v>
+        <v>37.61298457733287</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657847</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677882</v>
+        <v>2.621150418677883</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0479022349501383</v>
+        <v>0.04790223495013831</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,43 +33016,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713557</v>
+        <v>0.3203744404713558</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447041</v>
+        <v>3.094142622447042</v>
       </c>
       <c r="I27" t="n">
         <v>11.03043577938659</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926962</v>
+        <v>30.26835886926963</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085045</v>
+        <v>51.73344638085047</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287045</v>
+        <v>69.56200296287048</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995708</v>
+        <v>81.1755764299571</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259175</v>
+        <v>83.32405239259178</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425276</v>
+        <v>76.22522926425279</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948195</v>
+        <v>61.17746661948197</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595761</v>
+        <v>40.89551629595763</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031804</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716649957</v>
+        <v>5.95081471664996</v>
       </c>
       <c r="T27" t="n">
         <v>1.291333819268315</v>
@@ -33095,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162214</v>
+        <v>0.2685911688162215</v>
       </c>
       <c r="H28" t="n">
         <v>2.388019664566043</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673277</v>
+        <v>8.07726896767328</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530685</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064826</v>
+        <v>31.20541034064827</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927714</v>
+        <v>39.93218158927715</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089186</v>
+        <v>42.10288658089187</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257688</v>
+        <v>41.1017740425769</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322374</v>
+        <v>37.96414084322375</v>
       </c>
       <c r="P28" t="n">
-        <v>32.4848809993728</v>
+        <v>32.48488099937281</v>
       </c>
       <c r="Q28" t="n">
         <v>22.49084778151105</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513664</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097237</v>
+        <v>4.680811551097239</v>
       </c>
       <c r="T28" t="n">
         <v>1.147616812214764</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767285</v>
+        <v>0.5987779368767294</v>
       </c>
       <c r="H29" t="n">
-        <v>6.132234546038798</v>
+        <v>6.132234546038807</v>
       </c>
       <c r="I29" t="n">
-        <v>23.0843864114401</v>
+        <v>23.08438641144013</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999129</v>
+        <v>50.82052891999135</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798323</v>
+        <v>76.16679898798333</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367443</v>
+        <v>94.49164927367455</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086059</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N29" t="n">
-        <v>106.841444221757</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O29" t="n">
-        <v>100.887346111939</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529473</v>
+        <v>86.10501579529485</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089687</v>
+        <v>64.66128093089695</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733283</v>
+        <v>37.61298457733289</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657847</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T29" t="n">
-        <v>2.62115041867788</v>
+        <v>2.621150418677884</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013828</v>
+        <v>0.04790223495013834</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713555</v>
+        <v>0.320374440471356</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447039</v>
+        <v>3.094142622447044</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938658</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926961</v>
+        <v>30.26835886926965</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085043</v>
+        <v>51.73344638085049</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287042</v>
+        <v>69.56200296287052</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995705</v>
+        <v>81.17557642995716</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259172</v>
+        <v>83.32405239259184</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425273</v>
+        <v>76.22522926425283</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948193</v>
+        <v>61.177466619482</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.8955162959576</v>
+        <v>40.89551629595766</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031803</v>
+        <v>19.89131833031806</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716649956</v>
+        <v>5.950814716649964</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268314</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048393</v>
+        <v>0.02107726582048395</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162212</v>
+        <v>0.2685911688162216</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566042</v>
+        <v>2.388019664566045</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673275</v>
+        <v>8.077268967673286</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530684</v>
+        <v>18.98939563530687</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064824</v>
+        <v>31.20541034064829</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927712</v>
+        <v>39.93218158927717</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089184</v>
+        <v>42.1028865808919</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257687</v>
+        <v>41.10177404257692</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322372</v>
+        <v>37.96414084322377</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937278</v>
+        <v>32.48488099937283</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.49084778151104</v>
+        <v>22.49084778151107</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513664</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097236</v>
+        <v>4.680811551097242</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214763</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997572</v>
+        <v>0.01465042738997574</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767285</v>
+        <v>0.5987779368767294</v>
       </c>
       <c r="H32" t="n">
-        <v>6.132234546038798</v>
+        <v>6.132234546038807</v>
       </c>
       <c r="I32" t="n">
-        <v>23.0843864114401</v>
+        <v>23.08438641144013</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999129</v>
+        <v>50.82052891999135</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798323</v>
+        <v>76.16679898798333</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367443</v>
+        <v>94.49164927367455</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1401664086059</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N32" t="n">
-        <v>106.841444221757</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O32" t="n">
-        <v>100.887346111939</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529473</v>
+        <v>86.10501579529485</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089687</v>
+        <v>64.66128093089695</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733283</v>
+        <v>37.61298457733289</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657847</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T32" t="n">
-        <v>2.62115041867788</v>
+        <v>2.621150418677884</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013828</v>
+        <v>0.04790223495013834</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713555</v>
+        <v>0.320374440471356</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447039</v>
+        <v>3.094142622447044</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938658</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926961</v>
+        <v>30.26835886926965</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085043</v>
+        <v>51.73344638085049</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287042</v>
+        <v>69.56200296287052</v>
       </c>
       <c r="M33" t="n">
-        <v>81.17557642995705</v>
+        <v>81.17557642995716</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259172</v>
+        <v>83.32405239259184</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425273</v>
+        <v>76.22522926425283</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948193</v>
+        <v>61.177466619482</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.8955162959576</v>
+        <v>40.89551629595766</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031803</v>
+        <v>19.89131833031806</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716649956</v>
+        <v>5.950814716649964</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268314</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048393</v>
+        <v>0.02107726582048395</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2685911688162212</v>
+        <v>0.2685911688162216</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566042</v>
+        <v>2.388019664566045</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673275</v>
+        <v>8.077268967673286</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530684</v>
+        <v>18.98939563530687</v>
       </c>
       <c r="K34" t="n">
-        <v>31.20541034064824</v>
+        <v>31.20541034064829</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927712</v>
+        <v>39.93218158927717</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089184</v>
+        <v>42.1028865808919</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257687</v>
+        <v>41.10177404257692</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322372</v>
+        <v>37.96414084322377</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937278</v>
+        <v>32.48488099937283</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.49084778151104</v>
+        <v>22.49084778151107</v>
       </c>
       <c r="R34" t="n">
-        <v>12.07683564513664</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097236</v>
+        <v>4.680811551097242</v>
       </c>
       <c r="T34" t="n">
-        <v>1.147616812214763</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01465042738997572</v>
+        <v>0.01465042738997574</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767285</v>
+        <v>0.5987779368767294</v>
       </c>
       <c r="H35" t="n">
-        <v>6.132234546038798</v>
+        <v>6.132234546038807</v>
       </c>
       <c r="I35" t="n">
-        <v>23.0843864114401</v>
+        <v>23.08438641144013</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999129</v>
+        <v>50.82052891999135</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798323</v>
+        <v>76.16679898798333</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367443</v>
+        <v>94.49164927367455</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1401664086059</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N35" t="n">
-        <v>106.841444221757</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O35" t="n">
-        <v>100.887346111939</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529473</v>
+        <v>86.10501579529485</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089687</v>
+        <v>64.66128093089695</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733283</v>
+        <v>37.61298457733289</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657847</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T35" t="n">
-        <v>2.62115041867788</v>
+        <v>2.621150418677884</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013828</v>
+        <v>0.04790223495013834</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713555</v>
+        <v>0.320374440471356</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447039</v>
+        <v>3.094142622447044</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938658</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926961</v>
+        <v>30.26835886926965</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085043</v>
+        <v>51.73344638085049</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287042</v>
+        <v>69.56200296287052</v>
       </c>
       <c r="M36" t="n">
-        <v>81.17557642995705</v>
+        <v>81.17557642995716</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259172</v>
+        <v>83.32405239259184</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425273</v>
+        <v>76.22522926425283</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948193</v>
+        <v>61.177466619482</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.8955162959576</v>
+        <v>40.89551629595766</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031803</v>
+        <v>19.89131833031806</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716649956</v>
+        <v>5.950814716649964</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268314</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048393</v>
+        <v>0.02107726582048395</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162212</v>
+        <v>0.2685911688162216</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566042</v>
+        <v>2.388019664566045</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673275</v>
+        <v>8.077268967673286</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530684</v>
+        <v>18.98939563530687</v>
       </c>
       <c r="K37" t="n">
-        <v>31.20541034064824</v>
+        <v>31.20541034064829</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927712</v>
+        <v>39.93218158927717</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089184</v>
+        <v>42.1028865808919</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257687</v>
+        <v>41.10177404257692</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322372</v>
+        <v>37.96414084322377</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937278</v>
+        <v>32.48488099937283</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.49084778151104</v>
+        <v>22.49084778151107</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513664</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097236</v>
+        <v>4.680811551097242</v>
       </c>
       <c r="T37" t="n">
-        <v>1.147616812214763</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997572</v>
+        <v>0.01465042738997574</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767284</v>
+        <v>0.5987779368767301</v>
       </c>
       <c r="H38" t="n">
-        <v>6.132234546038797</v>
+        <v>6.132234546038814</v>
       </c>
       <c r="I38" t="n">
-        <v>23.0843864114401</v>
+        <v>23.08438641144016</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999128</v>
+        <v>50.82052891999142</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798321</v>
+        <v>76.16679898798341</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367441</v>
+        <v>94.49164927367465</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086059</v>
+        <v>105.1401664086062</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217569</v>
+        <v>106.8414442217572</v>
       </c>
       <c r="O38" t="n">
-        <v>100.887346111939</v>
+        <v>100.8873461119392</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529472</v>
+        <v>86.10501579529495</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089685</v>
+        <v>64.66128093089702</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733282</v>
+        <v>37.61298457733293</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657846</v>
+        <v>13.6446522365785</v>
       </c>
       <c r="T38" t="n">
-        <v>2.62115041867788</v>
+        <v>2.621150418677887</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013827</v>
+        <v>0.04790223495013839</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713555</v>
+        <v>0.3203744404713563</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447039</v>
+        <v>3.094142622447047</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938658</v>
+        <v>11.03043577938661</v>
       </c>
       <c r="J39" t="n">
-        <v>30.2683588692696</v>
+        <v>30.26835886926968</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085042</v>
+        <v>51.73344638085056</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287041</v>
+        <v>69.56200296287061</v>
       </c>
       <c r="M39" t="n">
-        <v>81.17557642995703</v>
+        <v>81.17557642995725</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259171</v>
+        <v>83.32405239259194</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425272</v>
+        <v>76.22522926425293</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948191</v>
+        <v>61.17746661948208</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595759</v>
+        <v>40.8955162959577</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031803</v>
+        <v>19.89131833031808</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716649954</v>
+        <v>5.95081471664997</v>
       </c>
       <c r="T39" t="n">
-        <v>1.291333819268314</v>
+        <v>1.291333819268317</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048392</v>
+        <v>0.02107726582048398</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162212</v>
+        <v>0.2685911688162219</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566041</v>
+        <v>2.388019664566047</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673273</v>
+        <v>8.077268967673294</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530684</v>
+        <v>18.98939563530689</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064824</v>
+        <v>31.20541034064832</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927711</v>
+        <v>39.93218158927722</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089183</v>
+        <v>42.10288658089195</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257686</v>
+        <v>41.10177404257697</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322372</v>
+        <v>37.96414084322382</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937278</v>
+        <v>32.48488099937286</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.49084778151103</v>
+        <v>22.49084778151109</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513663</v>
+        <v>12.07683564513667</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097235</v>
+        <v>4.680811551097247</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214763</v>
+        <v>1.147616812214766</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997572</v>
+        <v>0.01465042738997576</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767284</v>
+        <v>0.5987779368767301</v>
       </c>
       <c r="H41" t="n">
-        <v>6.132234546038797</v>
+        <v>6.132234546038814</v>
       </c>
       <c r="I41" t="n">
-        <v>23.0843864114401</v>
+        <v>23.08438641144016</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999128</v>
+        <v>50.82052891999142</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798321</v>
+        <v>76.16679898798341</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367441</v>
+        <v>94.49164927367465</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086059</v>
+        <v>105.1401664086062</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217569</v>
+        <v>106.8414442217572</v>
       </c>
       <c r="O41" t="n">
-        <v>100.887346111939</v>
+        <v>100.8873461119392</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529472</v>
+        <v>86.10501579529495</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089685</v>
+        <v>64.66128093089702</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733282</v>
+        <v>37.61298457733293</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657846</v>
+        <v>13.6446522365785</v>
       </c>
       <c r="T41" t="n">
-        <v>2.62115041867788</v>
+        <v>2.621150418677887</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013827</v>
+        <v>0.04790223495013839</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713555</v>
+        <v>0.3203744404713563</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447039</v>
+        <v>3.094142622447047</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938658</v>
+        <v>11.03043577938661</v>
       </c>
       <c r="J42" t="n">
-        <v>30.2683588692696</v>
+        <v>30.26835886926968</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085042</v>
+        <v>51.73344638085056</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287041</v>
+        <v>69.56200296287061</v>
       </c>
       <c r="M42" t="n">
-        <v>81.17557642995703</v>
+        <v>81.17557642995725</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259171</v>
+        <v>83.32405239259194</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425272</v>
+        <v>76.22522926425293</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948191</v>
+        <v>61.17746661948208</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595759</v>
+        <v>40.8955162959577</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031803</v>
+        <v>19.89131833031808</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716649954</v>
+        <v>5.95081471664997</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268314</v>
+        <v>1.291333819268317</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048392</v>
+        <v>0.02107726582048398</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162212</v>
+        <v>0.2685911688162219</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566041</v>
+        <v>2.388019664566047</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673273</v>
+        <v>8.077268967673294</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530684</v>
+        <v>18.98939563530689</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064824</v>
+        <v>31.20541034064832</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927711</v>
+        <v>39.93218158927722</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089183</v>
+        <v>42.10288658089195</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257686</v>
+        <v>41.10177404257697</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322372</v>
+        <v>37.96414084322382</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937278</v>
+        <v>32.48488099937286</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.49084778151103</v>
+        <v>22.49084778151109</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513663</v>
+        <v>12.07683564513667</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097235</v>
+        <v>4.680811551097247</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214763</v>
+        <v>1.147616812214766</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997572</v>
+        <v>0.01465042738997576</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7707987043443694</v>
+        <v>0.5987779368767301</v>
       </c>
       <c r="H44" t="n">
-        <v>7.893942230866775</v>
+        <v>6.132234546038814</v>
       </c>
       <c r="I44" t="n">
-        <v>29.71621704923633</v>
+        <v>23.08438641144016</v>
       </c>
       <c r="J44" t="n">
-        <v>65.42057653284797</v>
+        <v>50.82052891999142</v>
       </c>
       <c r="K44" t="n">
-        <v>98.04848568774514</v>
+        <v>76.16679898798341</v>
       </c>
       <c r="L44" t="n">
-        <v>121.6378165358242</v>
+        <v>94.49164927367465</v>
       </c>
       <c r="M44" t="n">
-        <v>135.3455079942083</v>
+        <v>105.1401664086062</v>
       </c>
       <c r="N44" t="n">
-        <v>137.5355398129268</v>
+        <v>106.8414442217572</v>
       </c>
       <c r="O44" t="n">
-        <v>129.8709101966025</v>
+        <v>100.8873461119392</v>
       </c>
       <c r="P44" t="n">
-        <v>110.8418171831008</v>
+        <v>86.10501579529495</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.23758858376807</v>
+        <v>64.66128093089702</v>
       </c>
       <c r="R44" t="n">
-        <v>48.41868411177203</v>
+        <v>37.61298457733293</v>
       </c>
       <c r="S44" t="n">
-        <v>17.56457547524733</v>
+        <v>13.6446522365785</v>
       </c>
       <c r="T44" t="n">
-        <v>3.374171328267479</v>
+        <v>2.621150418677887</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06166389634754953</v>
+        <v>0.04790223495013839</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4124136652536881</v>
+        <v>0.3203744404713563</v>
       </c>
       <c r="H45" t="n">
-        <v>3.983047767055357</v>
+        <v>3.094142622447047</v>
       </c>
       <c r="I45" t="n">
-        <v>14.19933014140988</v>
+        <v>11.03043577938661</v>
       </c>
       <c r="J45" t="n">
-        <v>38.96404720714779</v>
+        <v>30.26835886926968</v>
       </c>
       <c r="K45" t="n">
-        <v>66.59576277914489</v>
+        <v>51.73344638085056</v>
       </c>
       <c r="L45" t="n">
-        <v>89.54622148413962</v>
+        <v>69.56200296287061</v>
       </c>
       <c r="M45" t="n">
-        <v>104.4962168495858</v>
+        <v>81.17557642995725</v>
       </c>
       <c r="N45" t="n">
-        <v>107.2619207713967</v>
+        <v>83.32405239259194</v>
       </c>
       <c r="O45" t="n">
-        <v>98.12370218867025</v>
+        <v>76.22522926425293</v>
       </c>
       <c r="P45" t="n">
-        <v>78.75292174480296</v>
+        <v>61.17746661948208</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.64424260326027</v>
+        <v>40.8955162959577</v>
       </c>
       <c r="R45" t="n">
-        <v>25.60582388303163</v>
+        <v>19.89131833031808</v>
       </c>
       <c r="S45" t="n">
-        <v>7.660402948900737</v>
+        <v>5.95081471664997</v>
       </c>
       <c r="T45" t="n">
-        <v>1.662316484070786</v>
+        <v>1.291333819268317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02713247797721633</v>
+        <v>0.02107726582048398</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3457537630757839</v>
+        <v>0.2685911688162219</v>
       </c>
       <c r="H46" t="n">
-        <v>3.074065275346518</v>
+        <v>2.388019664566047</v>
       </c>
       <c r="I46" t="n">
-        <v>10.39775862049721</v>
+        <v>8.077268967673294</v>
       </c>
       <c r="J46" t="n">
-        <v>24.44479104945792</v>
+        <v>18.98939563530689</v>
       </c>
       <c r="K46" t="n">
-        <v>40.17030083735016</v>
+        <v>31.20541034064832</v>
       </c>
       <c r="L46" t="n">
-        <v>51.40415492128519</v>
+        <v>39.93218158927722</v>
       </c>
       <c r="M46" t="n">
-        <v>54.19847397014311</v>
+        <v>42.10288658089195</v>
       </c>
       <c r="N46" t="n">
-        <v>52.90975539867886</v>
+        <v>41.10177404257697</v>
       </c>
       <c r="O46" t="n">
-        <v>48.8707228027481</v>
+        <v>37.96414084322382</v>
       </c>
       <c r="P46" t="n">
-        <v>41.81734603600207</v>
+        <v>32.48488099937286</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.95216283355497</v>
+        <v>22.49084778151109</v>
       </c>
       <c r="R46" t="n">
-        <v>15.54634647429843</v>
+        <v>12.07683564513667</v>
       </c>
       <c r="S46" t="n">
-        <v>6.025545125602523</v>
+        <v>4.680811551097247</v>
       </c>
       <c r="T46" t="n">
-        <v>1.477311533141985</v>
+        <v>1.147616812214766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01885929616777005</v>
+        <v>0.01465042738997576</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34780,7 +34780,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>657.606006716664</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>372.2447499518083</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>424.9260266620927</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>572.7387264437913</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.05004611020361</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>409.2430801289772</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669741</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L24" t="n">
         <v>558.0125947793485</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306452</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143686</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>280.2819382414345</v>
+        <v>597.9628884470619</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>346.4773176773041</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079682</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166353</v>
+        <v>25.94761179166354</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793485</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>715.2883538306452</v>
@@ -36688,10 +36688,10 @@
         <v>745.7260435143686</v>
       </c>
       <c r="O27" t="n">
-        <v>280.2819382414345</v>
+        <v>597.9628884470619</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>240.3316445737208</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166353</v>
+        <v>25.94761179166354</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>196.9314106460803</v>
       </c>
       <c r="K29" t="n">
-        <v>438.7752394197628</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L29" t="n">
-        <v>592.7949742418854</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M29" t="n">
-        <v>656.6562270596975</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N29" t="n">
-        <v>639.9841549666681</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O29" t="n">
-        <v>545.3717914577253</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P29" t="n">
-        <v>437.8095533018824</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.373967941956</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>558.0125947793484</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>672.4374262609169</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>237.5337352016522</v>
       </c>
       <c r="O30" t="n">
         <v>597.9628884470619</v>
       </c>
       <c r="P30" t="n">
-        <v>470.8960208784692</v>
+        <v>470.8960208784693</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079682</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>113.8670680274582</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L31" t="n">
-        <v>205.7176764112971</v>
+        <v>205.7176764112972</v>
       </c>
       <c r="M31" t="n">
         <v>230.2761980336838</v>
@@ -37010,7 +37010,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166352</v>
+        <v>25.94761179166355</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>196.9314106460803</v>
       </c>
       <c r="K32" t="n">
-        <v>438.7752394197628</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L32" t="n">
-        <v>592.7949742418854</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M32" t="n">
-        <v>656.6562270596975</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N32" t="n">
-        <v>639.9841549666681</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O32" t="n">
-        <v>545.3717914577253</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P32" t="n">
-        <v>437.8095533018824</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.373967941956</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>558.0125947793484</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306451</v>
+        <v>672.4374262609168</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143686</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>280.2819382414345</v>
+        <v>597.9628884470619</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784693</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>113.8670680274582</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L34" t="n">
-        <v>205.7176764112971</v>
+        <v>205.7176764112972</v>
       </c>
       <c r="M34" t="n">
         <v>230.2761980336838</v>
@@ -37247,7 +37247,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166352</v>
+        <v>25.94761179166355</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>196.9314106460803</v>
       </c>
       <c r="K35" t="n">
-        <v>438.7752394197628</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L35" t="n">
-        <v>592.7949742418854</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M35" t="n">
-        <v>656.6562270596975</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N35" t="n">
-        <v>639.9841549666681</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O35" t="n">
-        <v>545.3717914577253</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P35" t="n">
-        <v>437.8095533018824</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.373967941956</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>374.7022807871397</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0125947793484</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306451</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N36" t="n">
-        <v>53.34281252160169</v>
+        <v>745.7260435143687</v>
       </c>
       <c r="O36" t="n">
-        <v>597.9628884470619</v>
+        <v>463.5922522336433</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8670680274582</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L37" t="n">
-        <v>205.7176764112971</v>
+        <v>205.7176764112972</v>
       </c>
       <c r="M37" t="n">
         <v>230.2761980336838</v>
@@ -37484,7 +37484,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166352</v>
+        <v>25.94761179166355</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9314106460803</v>
+        <v>196.9314106460804</v>
       </c>
       <c r="K38" t="n">
-        <v>438.7752394197628</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L38" t="n">
-        <v>592.7949742418854</v>
+        <v>592.7949742418856</v>
       </c>
       <c r="M38" t="n">
-        <v>656.6562270596974</v>
+        <v>656.6562270596977</v>
       </c>
       <c r="N38" t="n">
-        <v>639.984154966668</v>
+        <v>639.9841549666684</v>
       </c>
       <c r="O38" t="n">
-        <v>545.3717914577253</v>
+        <v>545.3717914577255</v>
       </c>
       <c r="P38" t="n">
-        <v>437.8095533018824</v>
+        <v>437.8095533018827</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.373967941956</v>
+        <v>251.3739679419562</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.525916666974</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>374.7022807871397</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>41.43840355870126</v>
+        <v>558.0125947793487</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306451</v>
+        <v>672.4374262609165</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143686</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q39" t="n">
-        <v>277.6279320079682</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8670680274582</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L40" t="n">
-        <v>205.7176764112971</v>
+        <v>205.7176764112972</v>
       </c>
       <c r="M40" t="n">
-        <v>230.2761980336838</v>
+        <v>230.2761980336839</v>
       </c>
       <c r="N40" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175358</v>
       </c>
       <c r="O40" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803027</v>
       </c>
       <c r="P40" t="n">
         <v>153.571917137331</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166352</v>
+        <v>25.94761179166358</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>196.9314106460803</v>
+        <v>196.9314106460804</v>
       </c>
       <c r="K41" t="n">
-        <v>438.7752394197628</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418854</v>
+        <v>592.7949742418856</v>
       </c>
       <c r="M41" t="n">
-        <v>656.6562270596974</v>
+        <v>656.6562270596977</v>
       </c>
       <c r="N41" t="n">
-        <v>639.984154966668</v>
+        <v>639.9841549666684</v>
       </c>
       <c r="O41" t="n">
-        <v>545.3717914577253</v>
+        <v>545.3717914577255</v>
       </c>
       <c r="P41" t="n">
-        <v>437.8095533018824</v>
+        <v>437.8095533018827</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.373967941956</v>
+        <v>251.3739679419562</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871397</v>
+        <v>374.7022807871399</v>
       </c>
       <c r="L42" t="n">
-        <v>558.0125947793484</v>
+        <v>558.0125947793487</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>20.10721346581052</v>
+        <v>20.10721346580845</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470618</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P42" t="n">
-        <v>470.8960208784692</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q42" t="n">
-        <v>277.6279320079682</v>
+        <v>277.6279320079683</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8670680274582</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L43" t="n">
-        <v>205.7176764112971</v>
+        <v>205.7176764112972</v>
       </c>
       <c r="M43" t="n">
-        <v>230.2761980336838</v>
+        <v>230.2761980336839</v>
       </c>
       <c r="N43" t="n">
-        <v>226.1418084175357</v>
+        <v>226.1418084175358</v>
       </c>
       <c r="O43" t="n">
-        <v>202.3123903803026</v>
+        <v>202.3123903803027</v>
       </c>
       <c r="P43" t="n">
         <v>153.571917137331</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166352</v>
+        <v>25.94761179166358</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>211.531458258937</v>
+        <v>196.9314106460804</v>
       </c>
       <c r="K44" t="n">
-        <v>460.6569261195248</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L44" t="n">
-        <v>619.9411415040352</v>
+        <v>592.7949742418856</v>
       </c>
       <c r="M44" t="n">
-        <v>686.8615686452998</v>
+        <v>656.6562270596977</v>
       </c>
       <c r="N44" t="n">
-        <v>670.6782505578379</v>
+        <v>639.9841549666684</v>
       </c>
       <c r="O44" t="n">
-        <v>574.3553555423888</v>
+        <v>545.3717914577255</v>
       </c>
       <c r="P44" t="n">
-        <v>462.5463546896885</v>
+        <v>437.8095533018827</v>
       </c>
       <c r="Q44" t="n">
-        <v>269.9502755948272</v>
+        <v>251.3739679419562</v>
       </c>
       <c r="R44" t="n">
-        <v>10.80569953443875</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>153.2216050048522</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>389.5645971854342</v>
+        <v>374.7022807871399</v>
       </c>
       <c r="L45" t="n">
-        <v>577.9968133006176</v>
+        <v>558.0125947793487</v>
       </c>
       <c r="M45" t="n">
-        <v>12.10909480027387</v>
+        <v>715.2883538306453</v>
       </c>
       <c r="N45" t="n">
-        <v>21.88980791723006</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>354.524399556299</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>488.4714760037903</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q45" t="n">
-        <v>289.3766583152709</v>
+        <v>180.4096800901936</v>
       </c>
       <c r="R45" t="n">
-        <v>1.927951212115527</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.8319585241601</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L46" t="n">
-        <v>217.1896497433052</v>
+        <v>205.7176764112972</v>
       </c>
       <c r="M46" t="n">
-        <v>242.3717854229351</v>
+        <v>230.2761980336839</v>
       </c>
       <c r="N46" t="n">
-        <v>237.9497897736377</v>
+        <v>226.1418084175358</v>
       </c>
       <c r="O46" t="n">
-        <v>213.218972339827</v>
+        <v>202.3123903803027</v>
       </c>
       <c r="P46" t="n">
-        <v>162.9043821739602</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.40892684370745</v>
+        <v>25.94761179166358</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
